--- a/stackoverflow-pivottable.xlsx
+++ b/stackoverflow-pivottable.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" createdVersion="3" minRefreshableVersion="3" refreshedVersion="3" refreshedBy="Apache POI" refreshedDate="1.479019520928E12" refreshOnLoad="true" r:id="rId1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" createdVersion="3" minRefreshableVersion="3" refreshedVersion="3" refreshedBy="Apache POI" refreshedDate="1.523378081635E12" refreshOnLoad="true" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource sheet="Sheet0" ref="A1:C6"/>
   </cacheSource>
@@ -143,7 +143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>

--- a/stackoverflow-pivottable.xlsx
+++ b/stackoverflow-pivottable.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" createdVersion="3" minRefreshableVersion="3" refreshedVersion="3" refreshedBy="Apache POI" refreshedDate="1.523378081635E12" refreshOnLoad="true" r:id="rId1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" createdVersion="3" minRefreshableVersion="3" refreshedVersion="3" refreshedBy="Apache POI" refreshedDate="1.586435477804E12" refreshOnLoad="true" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource sheet="Sheet0" ref="A1:C6"/>
   </cacheSource>
